--- a/bank statement generator/bank_statements/statement_73.xlsx
+++ b/bank statement generator/bank_statements/statement_73.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 27.05.2025</t>
+          <t>KONTOSTAND AM 25.05.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,66 +759,66 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
+          <t>28.05.</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
           <t>29.05.</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>30.05.</t>
-        </is>
-      </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-44018306</t>
+          <t>AMAZON.DE MKTPLC EU BTAUXH</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>52,90-</t>
+          <t>195,89-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>31.05.</t>
+          <t>01.06.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>01.06.</t>
+          <t>02.06.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>KARTENZ./01.06 ALDI SUED RO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>24,56-</t>
+          <t>89,34-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>02.06.</t>
+          <t>04.06.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>03.06.</t>
+          <t>05.06.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 69082963</t>
+          <t>KARTENZ./04.06 LIDL RO</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>40,82-</t>
+          <t>84,31-</t>
         </is>
       </c>
     </row>
@@ -835,34 +835,34 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./06.06 EDEKA RO</t>
+          <t>RECHNUNG VODAFONE GMBH 49496749</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>122,70-</t>
+          <t>37,60-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>09.06.</t>
+          <t>07.06.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>10.06.</t>
+          <t>08.06.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 50022807</t>
+          <t>BURGER KING Soltau</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>86,27-</t>
+          <t>21,93-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 13.06.2025</t>
+          <t>KONTOSTAND AM 12.06.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>327,25-</t>
+          <t>429,07-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.06.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.06.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
